--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\ck\PhD\courses\CPSC 427 - Winter 2024 - UBC - sessional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2171F5C-78B5-4A8E-ADA4-CFD6E9BFA6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169E7AC-91FA-4A66-8BBB-8DF0320B931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6591" yWindow="1140" windowWidth="19655" windowHeight="16534" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="5850" yWindow="2850" windowWidth="20070" windowHeight="12285" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>Bug List</t>
+  </si>
+  <si>
+    <t>Yuntian</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Jiayi</t>
+  </si>
+  <si>
+    <t>The animated player sprite is not updating consistently and may skip frame while walking</t>
+  </si>
+  <si>
+    <t>The sprite animates consistently in all directions</t>
+  </si>
+  <si>
+    <t>change player direction</t>
+  </si>
+  <si>
+    <t>The player sprite may stop updating upon change of direction</t>
   </si>
 </sst>
 </file>
@@ -176,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +215,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -529,27 +551,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.921875" customWidth="1"/>
-    <col min="7" max="7" width="18.61328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.23046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -579,6 +602,38 @@
       </c>
       <c r="J3" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45577</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -592,9 +647,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -610,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -618,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -626,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -634,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -642,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169E7AC-91FA-4A66-8BBB-8DF0320B931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF2C1F5-986A-4B38-A137-42AE70FC2F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="2850" windowWidth="20070" windowHeight="12285" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -123,16 +123,31 @@
     <t>Jiayi</t>
   </si>
   <si>
-    <t>The animated player sprite is not updating consistently and may skip frame while walking</t>
-  </si>
-  <si>
-    <t>The sprite animates consistently in all directions</t>
-  </si>
-  <si>
-    <t>change player direction</t>
-  </si>
-  <si>
-    <t>The player sprite may stop updating upon change of direction</t>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Change player direction in the game scene and the bug will appear.</t>
+  </si>
+  <si>
+    <t>Press two of the WASD keys in the main menu. Release one of them to enter the game scene while holding the other one. Release the other one in the game scene. The bug will then appear.</t>
+  </si>
+  <si>
+    <t>If two of the WASD keys are pressed in the main menu, the player may lose control in the game scene.</t>
+  </si>
+  <si>
+    <t>The animated player sprite is not updating consistently and may skip frame while walking.</t>
+  </si>
+  <si>
+    <t>The player sprite may stop updating upon change of direction.</t>
+  </si>
+  <si>
+    <t>The player should move according to the state of the WASD key.</t>
+  </si>
+  <si>
+    <t>The player keeps moving towards one direction.</t>
+  </si>
+  <si>
+    <t>The sprite should animate consistently in all directions.</t>
   </si>
 </sst>
 </file>
@@ -551,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +579,7 @@
     <col min="7" max="7" width="51.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -624,15 +639,47 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45578</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF2C1F5-986A-4B38-A137-42AE70FC2F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07697F5D-80C2-42EA-92B2-3B22104706B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
@@ -630,7 +630,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07697F5D-80C2-42EA-92B2-3B22104706B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402417E1-0672-4781-98D2-5BF4D8A4585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>The sprite should animate consistently in all directions.</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>The player should be blocked by the wall</t>
+  </si>
+  <si>
+    <t>The player keeps moving</t>
+  </si>
+  <si>
+    <t>If the player moves towards the bottom left corner of the map, they will pass through the wall</t>
+  </si>
+  <si>
+    <t>The player can squeeze themselves into a specific corner and pass through the wall</t>
   </si>
 </sst>
 </file>
@@ -566,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +677,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -681,6 +696,38 @@
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402417E1-0672-4781-98D2-5BF4D8A4585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE20C4E-50E0-4740-BD4A-6101808E4C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -163,6 +163,48 @@
   </si>
   <si>
     <t>The player can squeeze themselves into a specific corner and pass through the wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuntian </t>
+  </si>
+  <si>
+    <t>All entities' movement should be blocked by the walls</t>
+  </si>
+  <si>
+    <t>Some entities may pass through walls</t>
+  </si>
+  <si>
+    <t>Drag the window to freeze the game. If the game freezes for long enough, there is a chance that this issue may arise</t>
+  </si>
+  <si>
+    <t>If the game freezes for long enough, entity may ingore collision and move out of the walls.</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>If two hints are attached to the same entity, both of them will be shown when the player approaches</t>
+  </si>
+  <si>
+    <t>One entity should only display one hint</t>
+  </si>
+  <si>
+    <t>Two hints may be displayed and overlapped together</t>
+  </si>
+  <si>
+    <t>No entity in our current release has two hints. Yet it is nice to have a logic to deduplicate the hint texts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hand of the player may stick into the gap of the wall tile </t>
+  </si>
+  <si>
+    <t>The player's movement should be blocked by the walls</t>
+  </si>
+  <si>
+    <t>The player's hand sometimes can go inbetween the gap between the wall tiles</t>
+  </si>
+  <si>
+    <t>Face the player to the gaps between the wall tiles and move towards them. There is a chance the hand may go inside of the wall. This is likely due to the sharp shape of the hand and that we optimize the mesh by reduing number of vertices</t>
   </si>
 </sst>
 </file>
@@ -227,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -246,6 +288,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -581,16 +629,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="51.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
@@ -635,7 +685,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="7">
@@ -648,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -656,10 +706,10 @@
       <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -667,7 +717,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="7">
@@ -688,10 +738,10 @@
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -699,7 +749,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="7">
@@ -720,15 +770,114 @@
       <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45598</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45598</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45598</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjy32\source\repos\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE20C4E-50E0-4740-BD4A-6101808E4C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20DB7AD-9590-4EEB-ADD8-631C40484F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -205,17 +194,49 @@
   </si>
   <si>
     <t>Face the player to the gaps between the wall tiles and move towards them. There is a chance the hand may go inside of the wall. This is likely due to the sharp shape of the hand and that we optimize the mesh by reduing number of vertices</t>
+  </si>
+  <si>
+    <t>Jiayi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A consistant FPS rate regardless of devices</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS drops drastically on specific type of machine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using my machine: Intel(R) Core(TM) i5-10300H CPU @ 2.50GHz   2.50 GHz; 16.0 GB RAM; 512GB SSD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>So far didn't know what causes the issue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS drops from 60 to 20. Low FPS can cause entities pass through wallls</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,14 +244,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -238,8 +259,15 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,10 +322,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,23 +662,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="47.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="51.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -780,7 +811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -812,7 +843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -844,7 +875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -876,10 +907,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45599</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -890,7 +951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -949,6 +1010,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjy32\source\repos\Team16\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20DB7AD-9590-4EEB-ADD8-631C40484F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0251DF6-0184-4FE1-95F8-E079D9CEB1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="1740" yWindow="465" windowWidth="23700" windowHeight="12285" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A consistant FPS rate regardless of devices</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -226,6 +222,12 @@
   <si>
     <t>FPS drops from 60 to 20. Low FPS can cause entities pass through wallls</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>won't fix</t>
+  </si>
+  <si>
+    <t>won't fix (can't reproduce)</t>
   </si>
 </sst>
 </file>
@@ -236,7 +238,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -244,14 +246,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,13 +261,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,8 +329,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,23 +664,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="47.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -811,7 +813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -825,10 +827,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>46</v>
@@ -843,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -857,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -875,7 +877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -889,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>52</v>
@@ -907,7 +909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -921,22 +923,22 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0251DF6-0184-4FE1-95F8-E079D9CEB1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4190D-A592-4F32-A41E-68A48FE9C795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="465" windowWidth="23700" windowHeight="12285" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>won't fix (can't reproduce)</t>
+  </si>
+  <si>
+    <t>Release WASD key while the game is frozen will cause the player to lose control and move indefinitely in one direciton.</t>
+  </si>
+  <si>
+    <t>The character should stop moving after the key is released</t>
+  </si>
+  <si>
+    <t>The chracter moves into one direction indefinitely</t>
+  </si>
+  <si>
+    <t>Press one of the WASD keys, drag the window to freeze it and then release the kay. After the game restores, the player will move into one direction indefinitely.</t>
   </si>
 </sst>
 </file>
@@ -662,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -939,6 +951,38 @@
       </c>
       <c r="J10" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45613</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4190D-A592-4F32-A41E-68A48FE9C795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE5E9B0-77CE-40D4-B8D1-2BC775FB260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>Press one of the WASD keys, drag the window to freeze it and then release the kay. After the game restores, the player will move into one direction indefinitely.</t>
+  </si>
+  <si>
+    <t>Enemies will have trouble reaching the player if they are too close to the player in chasing state.</t>
+  </si>
+  <si>
+    <t>The enemy should try to chase the player and damge the player by overlapping in chasing state</t>
+  </si>
+  <si>
+    <t>The enemy fails to overlap with the player if gets too close</t>
+  </si>
+  <si>
+    <t>Move the character around the enemy and there is a chance that you may find an angle such that the enemy thinks that she is overlapped with the player yet due to precise collision, no damage is dealt.</t>
   </si>
 </sst>
 </file>
@@ -674,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +997,38 @@
         <v>68</v>
       </c>
     </row>
+    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45613</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE5E9B0-77CE-40D4-B8D1-2BC775FB260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A1923-CE61-4580-8A4A-2D6CB5878ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="0" yWindow="3915" windowWidth="23700" windowHeight="12285" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Yuntian</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Jiayi</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>Move the character around the enemy and there is a chance that you may find an angle such that the enemy thinks that she is overlapped with the player yet due to precise collision, no damage is dealt.</t>
+  </si>
+  <si>
+    <t>won't fix (this is Windows behaviour)</t>
   </si>
 </sst>
 </file>
@@ -688,15 +688,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="51.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
@@ -755,22 +755,22 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -787,22 +787,22 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -819,22 +819,22 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -845,28 +845,28 @@
         <v>45598</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -883,22 +883,22 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -915,22 +915,22 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -941,28 +941,28 @@
         <v>45599</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -979,22 +979,22 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -1011,22 +1011,22 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBCThings\Classes\CPSC 427\Team16\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A1923-CE61-4580-8A4A-2D6CB5878ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A8B00E-FFA0-4AB7-A1EF-9EF91E0B2FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3915" windowWidth="23700" windowHeight="12285" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A93FC866-1E7B-484F-97FF-E98B7C804DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>P2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A consistant FPS rate regardless of devices</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -251,7 +247,43 @@
     <t>Move the character around the enemy and there is a chance that you may find an angle such that the enemy thinks that she is overlapped with the player yet due to precise collision, no damage is dealt.</t>
   </si>
   <si>
-    <t>won't fix (this is Windows behaviour)</t>
+    <t>Significant frame rate drop when entering large map</t>
+  </si>
+  <si>
+    <t>The frame rate should remain consistent across the gameplay</t>
+  </si>
+  <si>
+    <t>The frame rate will drop significantly if the player enters a large map</t>
+  </si>
+  <si>
+    <t>Enter the second map and the frame rate will drop significantly</t>
+  </si>
+  <si>
+    <t>Game crashes when the battery level reaches zero</t>
+  </si>
+  <si>
+    <t>Spider enemies will spawn around the player when battery level reaches zero</t>
+  </si>
+  <si>
+    <t>The game crashes</t>
+  </si>
+  <si>
+    <t>Wait until the battery level reaches zero</t>
+  </si>
+  <si>
+    <t>won't fix (This is Windows behaviour and there is no clean fix. This bug is uncommon to trigger unless intended. It is also easy to recover from this bug: just tap the corresponding key)</t>
+  </si>
+  <si>
+    <t>Player gets into the wall when dashing under low frame rate</t>
+  </si>
+  <si>
+    <t>Player's movement should be blocked by the wall</t>
+  </si>
+  <si>
+    <t>Player gets into the wall</t>
+  </si>
+  <si>
+    <t>Press space to dash towards the wall when frame rate is very low (&lt;20)</t>
   </si>
 </sst>
 </file>
@@ -686,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B0CA0-DDFC-4447-897A-42A4E259D7BB}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +731,7 @@
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="51.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="47.85546875" style="1" customWidth="1"/>
   </cols>
@@ -769,7 +801,7 @@
       <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -801,7 +833,7 @@
       <c r="I5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -833,11 +865,11 @@
       <c r="I6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -865,7 +897,7 @@
       <c r="I7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -883,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -897,7 +929,7 @@
       <c r="I8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -923,13 +955,13 @@
       <c r="G9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -944,28 +976,28 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -976,28 +1008,28 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1017,16 +1049,112 @@
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45628</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45628</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45628</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
